--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2133416.790370735</v>
+        <v>2095380.174189459</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779176</v>
+        <v>421727.3537779183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481815</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7570156.582667757</v>
+        <v>7570156.582667758</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.3493044047354</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
         <v>14.85476540383092</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.7344121026524</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>274.2838073416025</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.47889771461601</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>17.76425168466123</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>107.0303560322709</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W5" t="n">
-        <v>233.6360368913801</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>20.07867728478316</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3355501465963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>99.15242676576018</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>160.2040698085663</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.55696361942517</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>125.9059726800905</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>145.560105770766</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>128.0419375852548</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>126.8368295093454</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
         <v>217.5149286494106</v>
@@ -1432,7 +1432,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -1466,10 +1466,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>177.6533237264606</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.96274733638199</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>112.2140411623541</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>185.7454791496544</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4656465272897</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>58.43703516040207</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>217.4406140145968</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>59.49314958703371</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -1940,7 +1940,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>63.56783007605712</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>12.10721317073962</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>96.42769085750209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>8.701822518807564</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>301.0858266243499</v>
       </c>
       <c r="H20" t="n">
-        <v>115.8186711917619</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.83002103235195</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>122.9603260571185</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>177.493467653868</v>
@@ -2374,19 +2374,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>224.067958449741</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>133.606938134229</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H24" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>155.2456885317531</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>48.98175317234269</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>302.0760696681976</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>127.7901226207923</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2696,7 +2696,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>168.3008309714128</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>13.06659249781271</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.32079707418768</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>413.6097194764729</v>
@@ -2812,7 +2812,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>31.01404666062744</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>117.2181085577235</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>77.57911839445286</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -3040,7 +3040,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>184.5538691007783</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>376.341442566969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,7 +3119,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>102.2787150142871</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.3570519053243</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W34" t="n">
-        <v>150.9763849115753</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>54.9596632788507</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>245.7619050511115</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>136.2131296253253</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>110.3094207068133</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>228.4935994949581</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>170.3262966789586</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -3596,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>43.43543629068183</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
         <v>156.5880156630749</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.56821562873055</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.58419887257701</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.8619696710236</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>313.7340871667382</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
         <v>325.3930767845979</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U42" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>83.58419887257689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>160.0412166710119</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>275.8381955413035</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>324.6632801134958</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V45" t="n">
-        <v>86.65238518501074</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>259.6327570162778</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>10.27783703902785</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.0562198267585</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C2" t="n">
-        <v>591.0562198267585</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D2" t="n">
-        <v>314.0018689766549</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E2" t="n">
-        <v>314.0018689766549</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>868.110570676862</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>591.0562198267585</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="W2" t="n">
-        <v>591.0562198267585</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="X2" t="n">
-        <v>591.0562198267585</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.0562198267585</v>
+        <v>191.7984726920449</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.0870020074991</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C3" t="n">
-        <v>452.3338869293163</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D3" t="n">
-        <v>304.7455802882602</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E3" t="n">
-        <v>147.1360512911149</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
-        <v>147.1360512911149</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>133.521003094533</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
         <v>21.9427045873282</v>
@@ -4409,52 +4409,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M3" t="n">
-        <v>548.9545891439176</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="S3" t="n">
-        <v>830.8154377838487</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="T3" t="n">
-        <v>830.8154377838487</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="U3" t="n">
-        <v>830.8154377838487</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="V3" t="n">
-        <v>830.8154377838487</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="W3" t="n">
-        <v>830.8154377838487</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="X3" t="n">
-        <v>830.8154377838487</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y3" t="n">
-        <v>625.0870020074991</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>33.07759116460122</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>33.07759116460122</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4530,10 +4530,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>584.0848816563265</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="C5" t="n">
-        <v>584.0848816563265</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="D5" t="n">
-        <v>584.0848816563265</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="E5" t="n">
-        <v>584.0848816563265</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="F5" t="n">
-        <v>576.7173427870933</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G5" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H5" t="n">
         <v>22.60864108688619</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>699.833627065984</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="W5" t="n">
-        <v>861.1392325064301</v>
+        <v>422.7792762158805</v>
       </c>
       <c r="X5" t="n">
-        <v>861.1392325064301</v>
+        <v>145.7249253657769</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.1392325064301</v>
+        <v>145.7249253657769</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M6" t="n">
-        <v>416.655578933882</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N6" t="n">
-        <v>688.1965482020685</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1001.483734658237</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="T6" t="n">
-        <v>801.0973387912989</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="U6" t="n">
-        <v>574.1708973092774</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="V6" t="n">
-        <v>339.9196538348783</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="W6" t="n">
-        <v>339.9196538348783</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="X6" t="n">
-        <v>133.3927552404558</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>981.2022424513852</v>
       </c>
     </row>
     <row r="7">
@@ -4707,25 +4707,25 @@
         <v>122.096671017389</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>529.3326250203188</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="C8" t="n">
-        <v>529.3326250203188</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="D8" t="n">
-        <v>252.2782741702153</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="E8" t="n">
-        <v>252.2782741702153</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="F8" t="n">
-        <v>244.9107353009821</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="G8" t="n">
-        <v>229.9059217617589</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="V8" t="n">
-        <v>820.0808785163064</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="W8" t="n">
-        <v>806.3869758704224</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="X8" t="n">
-        <v>806.3869758704224</v>
+        <v>584.0848816563265</v>
       </c>
       <c r="Y8" t="n">
-        <v>529.3326250203188</v>
+        <v>584.0848816563265</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.2841263065671</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="C9" t="n">
-        <v>169.5310112283843</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>168.577974491964</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>440.1189437601505</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>711.659913028337</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8839858920107</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="W9" t="n">
-        <v>715.8535760225501</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="X9" t="n">
-        <v>509.3266774281276</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="Y9" t="n">
-        <v>509.3266774281276</v>
+        <v>630.4290419169106</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4986,28 +4986,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>597.8343179118502</v>
+        <v>708.3342602150965</v>
       </c>
       <c r="C11" t="n">
-        <v>468.4990274216939</v>
+        <v>337.6422443777807</v>
       </c>
       <c r="D11" t="n">
-        <v>468.4990274216939</v>
+        <v>337.6422443777807</v>
       </c>
       <c r="E11" t="n">
-        <v>468.4990274216939</v>
+        <v>337.6422443777807</v>
       </c>
       <c r="F11" t="n">
-        <v>468.4990274216939</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H11" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2315.859550404841</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2061.942217170138</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V11" t="n">
-        <v>1730.090478258502</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W11" t="n">
-        <v>1376.019653005417</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="X11" t="n">
-        <v>1376.019653005417</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="Y11" t="n">
-        <v>985.4266512364917</v>
+        <v>1095.926593539738</v>
       </c>
     </row>
     <row r="12">
@@ -5105,40 +5105,40 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N12" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O12" t="n">
-        <v>2229.885785662707</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P12" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.4217947416373</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>357.4217947416373</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>357.4217947416373</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
         <v>50.71143199091319</v>
@@ -5223,28 +5223,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>357.4217947416373</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W13" t="n">
-        <v>357.4217947416373</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X13" t="n">
-        <v>357.4217947416373</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.4217947416373</v>
+        <v>230.1592337348128</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011.75842740021</v>
+        <v>1403.315439199007</v>
       </c>
       <c r="C14" t="n">
-        <v>1011.75842740021</v>
+        <v>1403.315439199007</v>
       </c>
       <c r="D14" t="n">
-        <v>651.5516266379893</v>
+        <v>1043.108638436787</v>
       </c>
       <c r="E14" t="n">
-        <v>651.5516266379893</v>
+        <v>656.1207235324559</v>
       </c>
       <c r="F14" t="n">
-        <v>651.5516266379893</v>
+        <v>656.1207235324559</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>238.3331281016752</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T14" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U14" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V14" t="n">
-        <v>1740.436928543366</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W14" t="n">
-        <v>1386.36610329028</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X14" t="n">
-        <v>1011.75842740021</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="Y14" t="n">
-        <v>1011.75842740021</v>
+        <v>1790.907772523649</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K15" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N15" t="n">
-        <v>1805.095121106633</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5390,19 +5390,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>438.6120692388447</v>
       </c>
       <c r="C16" t="n">
-        <v>50.71143199091319</v>
+        <v>269.5852480962161</v>
       </c>
       <c r="D16" t="n">
-        <v>50.71143199091319</v>
+        <v>269.5852480962161</v>
       </c>
       <c r="E16" t="n">
-        <v>50.71143199091319</v>
+        <v>269.5852480962161</v>
       </c>
       <c r="F16" t="n">
-        <v>50.71143199091319</v>
+        <v>269.5852480962161</v>
       </c>
       <c r="G16" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="H16" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="I16" t="n">
-        <v>50.71143199091319</v>
+        <v>100.5639307332544</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5469,19 +5469,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>534.6273016871237</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V16" t="n">
-        <v>279.1360379831448</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W16" t="n">
-        <v>279.1360379831448</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>620.5147879163031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1637.586901072978</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="C17" t="n">
-        <v>1266.894885235662</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.894885235662</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="E17" t="n">
-        <v>879.9069703313312</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="F17" t="n">
-        <v>468.4990274216939</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H17" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5548,19 +5548,19 @@
         <v>2072.288667455001</v>
       </c>
       <c r="U17" t="n">
-        <v>2072.288667455001</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V17" t="n">
-        <v>2012.194576963048</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W17" t="n">
-        <v>2012.194576963048</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X17" t="n">
-        <v>1637.586901072978</v>
+        <v>757.8410941655072</v>
       </c>
       <c r="Y17" t="n">
-        <v>1637.586901072978</v>
+        <v>757.8410941655072</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>874.5523969142982</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>701.7992818361154</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>554.2109751950592</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>396.6014461979139</v>
       </c>
       <c r="F18" t="n">
-        <v>356.7252812502705</v>
+        <v>251.6456562145308</v>
       </c>
       <c r="G18" t="n">
-        <v>220.0009863964076</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="H18" t="n">
         <v>114.9213613606679</v>
@@ -5606,7 +5606,7 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2523.342091292387</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2365.172378501402</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.5778151726</v>
+        <v>2167.498190136861</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1940.616017547696</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1706.364774073297</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.92990744237</v>
+        <v>1453.85028240663</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.403008847948</v>
+        <v>1247.323383812208</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>1041.594948035859</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>317.1344572907457</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>148.113139927784</v>
       </c>
       <c r="H19" t="n">
         <v>50.71143199091319</v>
@@ -5697,28 +5697,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>314.9924154108594</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T19" t="n">
-        <v>306.2026956948922</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U19" t="n">
-        <v>306.2026956948922</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>464.7698324521643</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1073.707507198288</v>
+        <v>766.2464725009039</v>
       </c>
       <c r="C20" t="n">
-        <v>1073.707507198288</v>
+        <v>766.2464725009039</v>
       </c>
       <c r="D20" t="n">
-        <v>713.5007064360675</v>
+        <v>766.2464725009039</v>
       </c>
       <c r="E20" t="n">
-        <v>326.5127915317367</v>
+        <v>766.2464725009039</v>
       </c>
       <c r="F20" t="n">
-        <v>326.5127915317367</v>
+        <v>354.8385295912666</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5127915317367</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
@@ -5758,13 +5758,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5779,25 +5779,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S20" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T20" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U20" t="n">
-        <v>1818.371334220299</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V20" t="n">
-        <v>1818.371334220299</v>
+        <v>1885.517975412985</v>
       </c>
       <c r="W20" t="n">
-        <v>1464.300508967213</v>
+        <v>1531.447150159899</v>
       </c>
       <c r="X20" t="n">
-        <v>1464.300508967213</v>
+        <v>1156.839474269829</v>
       </c>
       <c r="Y20" t="n">
-        <v>1073.707507198288</v>
+        <v>766.2464725009039</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
         <v>1620.913172155677</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.4589279831879</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="C22" t="n">
-        <v>50.71143199091319</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="D22" t="n">
-        <v>50.71143199091319</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="E22" t="n">
-        <v>50.71143199091319</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="F22" t="n">
-        <v>50.71143199091319</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="G22" t="n">
         <v>50.71143199091319</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>431.4413288795672</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V22" t="n">
-        <v>431.4413288795672</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W22" t="n">
-        <v>142.4589279831879</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="X22" t="n">
-        <v>142.4589279831879</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.4589279831879</v>
+        <v>135.1399157005869</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>333.7265843250262</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="C23" t="n">
-        <v>333.7265843250262</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="D23" t="n">
-        <v>333.7265843250262</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E23" t="n">
-        <v>333.7265843250262</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F23" t="n">
-        <v>333.7265843250262</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>1910.241948279983</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>1578.390209368347</v>
       </c>
       <c r="W23" t="n">
-        <v>1486.519595308663</v>
+        <v>1224.319384115262</v>
       </c>
       <c r="X23" t="n">
-        <v>1111.911919418593</v>
+        <v>849.7117082251918</v>
       </c>
       <c r="Y23" t="n">
-        <v>721.3189176496677</v>
+        <v>849.7117082251918</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>220.0009863964076</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6071,13 +6071,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
         <v>1620.913172155677</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="C25" t="n">
         <v>50.71143199091319</v>
@@ -6168,31 +6168,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>207.5252587906638</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V25" t="n">
-        <v>207.5252587906638</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W25" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X25" t="n">
-        <v>50.71143199091319</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.71143199091319</v>
+        <v>401.6409718110002</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1095.926593539738</v>
+        <v>1580.006106404418</v>
       </c>
       <c r="C26" t="n">
-        <v>1095.926593539738</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.926593539738</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E26" t="n">
-        <v>1095.926593539738</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F26" t="n">
-        <v>684.5186506301006</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G26" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
         <v>50.71143199091319</v>
@@ -6238,7 +6238,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N26" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O26" t="n">
         <v>2113.071138623965</v>
@@ -6253,25 +6253,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2342.206115619129</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2342.206115619129</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>2342.206115619129</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.519595308663</v>
+        <v>2342.206115619129</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.519595308663</v>
+        <v>1967.598439729059</v>
       </c>
       <c r="Y26" t="n">
-        <v>1095.926593539738</v>
+        <v>1967.598439729059</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>915.4220925802833</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C27" t="n">
-        <v>742.6689775021005</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D27" t="n">
-        <v>595.0806708610443</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E27" t="n">
-        <v>437.471141863899</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F27" t="n">
-        <v>292.5153518805158</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H27" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
@@ -6308,7 +6308,7 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L27" t="n">
         <v>573.239262455199</v>
@@ -6332,25 +6332,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T27" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U27" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V27" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W27" t="n">
-        <v>1494.719978072616</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X27" t="n">
-        <v>1288.193079478193</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y27" t="n">
-        <v>1082.464643701844</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.2221052379024</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="C28" t="n">
-        <v>201.2221052379024</v>
+        <v>497.316696735886</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F28" t="n">
         <v>50.71143199091319</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>529.7646791178286</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="V28" t="n">
-        <v>274.2734154138496</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="W28" t="n">
-        <v>201.2221052379024</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="X28" t="n">
-        <v>201.2221052379024</v>
+        <v>666.3435178785146</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.2221052379024</v>
+        <v>666.3435178785146</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1686.890522342696</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="C29" t="n">
-        <v>1316.19850650538</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D29" t="n">
-        <v>955.9917057431599</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E29" t="n">
-        <v>955.9917057431599</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F29" t="n">
-        <v>955.9917057431599</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G29" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6499,16 +6499,16 @@
         <v>2072.288667455001</v>
       </c>
       <c r="V29" t="n">
-        <v>2040.961347595782</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W29" t="n">
-        <v>1686.890522342696</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X29" t="n">
-        <v>1686.890522342696</v>
+        <v>1697.680991564931</v>
       </c>
       <c r="Y29" t="n">
-        <v>1686.890522342696</v>
+        <v>1579.278861708645</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6548,10 +6548,10 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6642,22 +6642,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>567.8508467335537</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>339.6223487454808</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U31" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V31" t="n">
-        <v>50.71143199091319</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W31" t="n">
         <v>50.71143199091319</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1580.006106404418</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C32" t="n">
-        <v>1209.314090567102</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D32" t="n">
-        <v>849.1072898048812</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F32" t="n">
         <v>50.71143199091319</v>
@@ -6712,7 +6712,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N32" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O32" t="n">
         <v>2113.071138623965</v>
@@ -6727,25 +6727,25 @@
         <v>2471.287047559323</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T32" t="n">
-        <v>2292.00071659582</v>
+        <v>2284.868997962577</v>
       </c>
       <c r="U32" t="n">
-        <v>2292.00071659582</v>
+        <v>2284.868997962577</v>
       </c>
       <c r="V32" t="n">
-        <v>1960.148977684184</v>
+        <v>2284.868997962577</v>
       </c>
       <c r="W32" t="n">
-        <v>1960.148977684184</v>
+        <v>1930.798172709492</v>
       </c>
       <c r="X32" t="n">
-        <v>1960.148977684184</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.006106404418</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="33">
@@ -6767,13 +6767,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>251.6456562145308</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
@@ -6782,13 +6782,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
         <v>1620.913172155677</v>
@@ -6879,22 +6879,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S34" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2128308914943</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>203.2128308914943</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V34" t="n">
-        <v>203.2128308914943</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W34" t="n">
         <v>50.71143199091319</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>998.0038460404777</v>
+        <v>1693.101712465756</v>
       </c>
       <c r="C35" t="n">
-        <v>627.3118302031619</v>
+        <v>1322.409696628441</v>
       </c>
       <c r="D35" t="n">
-        <v>627.3118302031619</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E35" t="n">
-        <v>627.3118302031619</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F35" t="n">
-        <v>627.3118302031619</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
@@ -6943,13 +6943,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.433529670521</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W35" t="n">
-        <v>1776.189181134044</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X35" t="n">
-        <v>1776.189181134044</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="Y35" t="n">
-        <v>1385.596179365119</v>
+        <v>2080.694045790398</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>522.566305376936</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E36" t="n">
-        <v>364.9567763797908</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>220.0009863964076</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
@@ -7028,13 +7028,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7116,25 +7116,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>268.2076775571585</v>
+        <v>568.1184388795241</v>
       </c>
       <c r="U37" t="n">
-        <v>268.2076775571585</v>
+        <v>568.1184388795241</v>
       </c>
       <c r="V37" t="n">
-        <v>50.71143199091319</v>
+        <v>568.1184388795241</v>
       </c>
       <c r="W37" t="n">
-        <v>50.71143199091319</v>
+        <v>279.1360379831448</v>
       </c>
       <c r="X37" t="n">
         <v>50.71143199091319</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1550.658872745846</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="C38" t="n">
-        <v>1179.96685690853</v>
+        <v>1028.707763308938</v>
       </c>
       <c r="D38" t="n">
-        <v>1179.96685690853</v>
+        <v>668.5009625467169</v>
       </c>
       <c r="E38" t="n">
-        <v>792.9789420041989</v>
+        <v>281.5130476423861</v>
       </c>
       <c r="F38" t="n">
-        <v>381.5709990945616</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G38" t="n">
-        <v>381.5709990945616</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7180,13 +7180,13 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N38" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O38" t="n">
         <v>2113.071138623965</v>
@@ -7204,22 +7204,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U38" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V38" t="n">
-        <v>2315.859550404841</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W38" t="n">
-        <v>2315.859550404841</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.251874514771</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y38" t="n">
-        <v>1550.658872745846</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7277,28 +7277,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.71143199091319</v>
+        <v>666.8469288573855</v>
       </c>
       <c r="C40" t="n">
-        <v>50.71143199091319</v>
+        <v>497.8201077147568</v>
       </c>
       <c r="D40" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="E40" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="F40" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G40" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H40" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I40" t="n">
         <v>50.71143199091319</v>
@@ -7365,19 +7365,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>390.6311794045659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V40" t="n">
-        <v>135.1399157005869</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2067.498784725884</v>
+        <v>1643.586839930716</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.806768888568</v>
+        <v>1272.894824093401</v>
       </c>
       <c r="D41" t="n">
-        <v>1336.599968126347</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="E41" t="n">
-        <v>949.6120532220164</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F41" t="n">
-        <v>538.2041103123792</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G41" t="n">
         <v>538.2041103123792</v>
@@ -7414,7 +7414,7 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
         <v>829.726164853582</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.571599545659</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U41" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.571599545659</v>
+        <v>1997.657665183802</v>
       </c>
       <c r="W41" t="n">
-        <v>2181.500774292574</v>
+        <v>1643.586839930716</v>
       </c>
       <c r="X41" t="n">
-        <v>2181.500774292574</v>
+        <v>1643.586839930716</v>
       </c>
       <c r="Y41" t="n">
-        <v>2181.500774292574</v>
+        <v>1643.586839930716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C42" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D42" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E42" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F42" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G42" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
@@ -7499,16 +7499,16 @@
         <v>687.7199234768461</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N42" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O42" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7523,19 +7523,19 @@
         <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X42" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1991.169419087113</v>
+        <v>517.8843015419498</v>
       </c>
       <c r="C43" t="n">
-        <v>1991.169419087113</v>
+        <v>348.8574803993212</v>
       </c>
       <c r="D43" t="n">
-        <v>1991.169419087113</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E43" t="n">
-        <v>1991.169419087113</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.660682791092</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.169419087113</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W43" t="n">
-        <v>1991.169419087113</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X43" t="n">
-        <v>1991.169419087113</v>
+        <v>517.8843015419498</v>
       </c>
       <c r="Y43" t="n">
-        <v>1991.169419087113</v>
+        <v>517.8843015419498</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1028.707763308938</v>
+        <v>378.6541391762624</v>
       </c>
       <c r="C44" t="n">
-        <v>658.0157474716217</v>
+        <v>378.6541391762624</v>
       </c>
       <c r="D44" t="n">
-        <v>658.0157474716217</v>
+        <v>378.6541391762624</v>
       </c>
       <c r="E44" t="n">
-        <v>379.3913075309111</v>
+        <v>378.6541391762624</v>
       </c>
       <c r="F44" t="n">
-        <v>379.3913075309111</v>
+        <v>378.6541391762624</v>
       </c>
       <c r="G44" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.571599545659</v>
+        <v>1885.517975412985</v>
       </c>
       <c r="W44" t="n">
-        <v>2181.500774292574</v>
+        <v>1531.447150159899</v>
       </c>
       <c r="X44" t="n">
-        <v>1806.893098402504</v>
+        <v>1156.839474269829</v>
       </c>
       <c r="Y44" t="n">
-        <v>1416.300096633579</v>
+        <v>766.2464725009039</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
@@ -7736,7 +7736,7 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
@@ -7763,16 +7763,16 @@
         <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.0582880536082</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C46" t="n">
-        <v>189.0582880536082</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D46" t="n">
-        <v>189.0582880536082</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E46" t="n">
-        <v>189.0582880536082</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X46" t="n">
-        <v>189.0582880536082</v>
+        <v>380.2495258297903</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.0582880536082</v>
+        <v>380.2495258297903</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>134.395403</v>
@@ -8066,10 +8066,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N3" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>150.7119311045153</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>269.5263315788349</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O9" t="n">
-        <v>245.8259630674526</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9254,10 +9254,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9482,7 +9482,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9719,7 +9719,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9956,10 +9956,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>89.00147381534887</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -10196,13 +10196,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10430,7 +10430,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.5063687605953</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11147,7 +11147,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
         <v>498.5160693172957</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>238.9431580936879</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -23269,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>280.4570339711954</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23345,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>2.430367764223206</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23424,7 +23424,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -23433,7 +23433,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
         <v>136.9633875020681</v>
@@ -23463,7 +23463,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>82.31689553450985</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
         <v>212.6245410698995</v>
@@ -23475,16 +23475,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>301.3956783141188</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>139.6475976349435</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -23667,7 +23667,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.6686349500177</v>
@@ -23676,7 +23676,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>142.5561610597322</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>160.3116387073661</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>196.1691054618761</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>269.0400719354856</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>41.22751706926212</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>60.24094409251566</v>
       </c>
       <c r="I19" t="n">
         <v>136.9633875020681</v>
@@ -23937,19 +23937,19 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2443904893846</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
@@ -23974,22 +23974,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>112.523892852123</v>
       </c>
       <c r="H20" t="n">
-        <v>209.574405592836</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>76.50653189885038</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24141,7 +24141,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>83.74690531675508</v>
       </c>
       <c r="H22" t="n">
         <v>156.6686349500177</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24217,16 +24217,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>290.6493934193543</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>27.31020145261473</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.899293949320253</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3570519053243</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
         <v>212.6245410698995</v>
@@ -24420,19 +24420,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>130.8468883556624</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>169.7669206954255</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>111.5336498082752</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
         <v>157.2246747536534</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>89.7248060286183</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>81.6885157785872</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3311041893321</v>
@@ -24648,7 +24648,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
         <v>212.6245410698995</v>
@@ -24657,13 +24657,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>272.9552150892092</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>213.7717798132279</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>297.5191748618919</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>269.4689631935123</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0454226754466</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>413.6097194764729</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>32.96105954863231</v>
       </c>
       <c r="U32" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.34562918426678</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25007,7 +25007,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>41.22751706926218</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W34" t="n">
-        <v>135.1161919758403</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>301.6450694757477</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
         <v>217.5149286494106</v>
@@ -25213,10 +25213,10 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>104.768211949443</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>9.89929394932031</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.6367923013788</v>
       </c>
       <c r="U37" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>37.61506795635631</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>178.8002639855827</v>
       </c>
       <c r="G38" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>155.0667801056393</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
@@ -25453,7 +25453,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>91.92161561464246</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>167.5154758619533</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25566,10 +25566,10 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>49.35397375491781</v>
@@ -25605,13 +25605,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>202.5083780148385</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.8544403203714</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>42.87064558786017</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>83.74690531675519</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25842,16 +25842,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>66.09914326129734</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>107.279840213984</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>88.94643936297712</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25921,10 +25921,10 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -26034,7 +26034,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3311041893321</v>
@@ -26043,7 +26043,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>49.35397375491781</v>
@@ -26076,10 +26076,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>26.38905057074408</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26088,7 +26088,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>215.8625228932814</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>863342.3328247006</v>
+        <v>863342.3328247005</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>585277.4388185716</v>
+        <v>585277.4388185717</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>585277.4388185717</v>
+        <v>585277.4388185716</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>585277.4388185716</v>
+        <v>585277.4388185717</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>585277.4388185717</v>
+        <v>585277.4388185716</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>585277.4388185716</v>
+        <v>585277.4388185715</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569743.5860304554</v>
+        <v>569743.5860304557</v>
       </c>
       <c r="C2" t="n">
-        <v>569743.5860304557</v>
+        <v>569743.5860304555</v>
       </c>
       <c r="D2" t="n">
-        <v>569743.5860304557</v>
+        <v>569743.5860304558</v>
       </c>
       <c r="E2" t="n">
         <v>384087.1678458801</v>
@@ -26337,10 +26337,10 @@
         <v>384087.16784588</v>
       </c>
       <c r="J2" t="n">
-        <v>384087.1678458801</v>
+        <v>384087.16784588</v>
       </c>
       <c r="K2" t="n">
-        <v>384087.1678458799</v>
+        <v>384087.16784588</v>
       </c>
       <c r="L2" t="n">
         <v>384087.16784588</v>
@@ -26352,7 +26352,7 @@
         <v>384087.1678458801</v>
       </c>
       <c r="O2" t="n">
-        <v>384087.16784588</v>
+        <v>384087.1678458799</v>
       </c>
       <c r="P2" t="n">
         <v>384087.1678458801</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853741</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>9628.876256390869</v>
       </c>
       <c r="M4" t="n">
-        <v>9628.876256390868</v>
+        <v>9628.876256390869</v>
       </c>
       <c r="N4" t="n">
         <v>9628.876256390869</v>
@@ -26459,7 +26459,7 @@
         <v>9628.876256390869</v>
       </c>
       <c r="P4" t="n">
-        <v>9628.876256390868</v>
+        <v>9628.876256390869</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151717.6454981247</v>
+        <v>151717.6454981249</v>
       </c>
       <c r="C6" t="n">
+        <v>243636.4578658647</v>
+      </c>
+      <c r="D6" t="n">
         <v>243636.4578658649</v>
       </c>
-      <c r="D6" t="n">
-        <v>243636.4578658648</v>
-      </c>
       <c r="E6" t="n">
-        <v>-27023.39941286574</v>
+        <v>-33653.98577660064</v>
       </c>
       <c r="F6" t="n">
-        <v>329166.0304738143</v>
+        <v>322535.4441100794</v>
       </c>
       <c r="G6" t="n">
-        <v>329166.0304738143</v>
+        <v>322535.4441100795</v>
       </c>
       <c r="H6" t="n">
-        <v>329166.0304738144</v>
+        <v>322535.4441100796</v>
       </c>
       <c r="I6" t="n">
-        <v>329166.0304738143</v>
+        <v>322535.4441100795</v>
       </c>
       <c r="J6" t="n">
-        <v>257401.3179857282</v>
+        <v>250770.7316219932</v>
       </c>
       <c r="K6" t="n">
-        <v>329166.0304738142</v>
+        <v>322535.4441100795</v>
       </c>
       <c r="L6" t="n">
-        <v>329166.0304738143</v>
+        <v>322535.4441100795</v>
       </c>
       <c r="M6" t="n">
-        <v>239550.006175277</v>
+        <v>232919.4198115422</v>
       </c>
       <c r="N6" t="n">
-        <v>329166.0304738144</v>
+        <v>322535.4441100796</v>
       </c>
       <c r="O6" t="n">
-        <v>329166.0304738143</v>
+        <v>322535.4441100794</v>
       </c>
       <c r="P6" t="n">
-        <v>329166.0304738145</v>
+        <v>322535.4441100796</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>238.3671055866597</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>24.74335147389203</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>54.24941418091686</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>122.5443124904263</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>76.93072807642999</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
@@ -27523,7 +27523,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,19 +27551,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7350090859033</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>226.1403599323093</v>
+        <v>62.00164300853427</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27627,13 +27627,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
+        <v>300.2635074482699</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>140.5709580622284</v>
-      </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27672,16 +27672,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
-        <v>116.8940801091745</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27697,25 +27697,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>148.8829366208612</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.33560127198974</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>49.85313974875918</v>
+        <v>64.62754946659254</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H8" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>62.76104738785406</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>336.9731533811294</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>30.12746102708336</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>104.429240979234</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28019,7 +28019,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28031,13 +28031,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>121.8200443289944</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>9.25243074600732</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
+        <v>90.02410328955504</v>
+      </c>
+      <c r="N3" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5579630241179461</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>16.31652810451528</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>130.4949932455015</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7946247341192</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
@@ -35506,10 +35506,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35740,13 +35740,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
@@ -36202,7 +36202,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36211,7 +36211,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O21" t="n">
         <v>429.0814793495699</v>
@@ -36439,7 +36439,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L24" t="n">
         <v>395.2245205299612</v>
@@ -36448,7 +36448,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
@@ -36676,10 +36676,10 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>248.2184001629003</v>
+        <v>62.17602748516736</v>
       </c>
       <c r="L27" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36916,13 +36916,13 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -37150,7 +37150,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37159,7 +37159,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37396,7 +37396,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>524.7048705976756</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9729937182838</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M41" t="n">
         <v>461.5256681281613</v>
@@ -37867,7 +37867,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
         <v>543.714571154376</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
